--- a/biology/Médecine/Liste_d'abréviations_en_médecine/Liste_d'abréviations_en_médecine.xlsx
+++ b/biology/Médecine/Liste_d'abréviations_en_médecine/Liste_d'abréviations_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente des sigles et abréviations utilisés plus ou moins couramment en médecine en langue française.
-Les abréviations sont d'usage courant en médecine, certaines étant connues de la presque totalité des différents intervenants en médecine, d'autres sont diverses selon les utilisateurs pour désigner la même chose, d'autres encore sont plus confidentielles ou utilisées seulement dans certains domaines très spécialisés. Lors d'une enquête dans un hôpital anglais, près de 20 % de celles qui sont utilisées dans les dossiers de patients ne sont pas citées dans les dictionnaires médicaux[1].
+Les abréviations sont d'usage courant en médecine, certaines étant connues de la presque totalité des différents intervenants en médecine, d'autres sont diverses selon les utilisateurs pour désigner la même chose, d'autres encore sont plus confidentielles ou utilisées seulement dans certains domaines très spécialisés. Lors d'une enquête dans un hôpital anglais, près de 20 % de celles qui sont utilisées dans les dossiers de patients ne sont pas citées dans les dictionnaires médicaux.
 Certaines de ces abréviations viennent de langues étrangères, l'anglais très majoritairement, sans jamais avoir été traduites.
-Plusieurs abréviations peuvent également signifier des choses très différentes et porter alors à confusion : IVG pour « insuffisance ventriculaire gauche » ou « interruption volontaire de grossesse », par exemple, et parfois occasionner des erreurs. Mais le plus souvent le contexte oriente vers une signification et une seule, sans ambigüité. Dans le cas de la prescription de médicaments, l'usage de ces abréviations serait responsable de près de 5 % des erreurs[1], à tel point, qu'une commission américaine a édité une liste « Do Not Use » pointant les erreurs les plus courantes[2]. Il vaut donc mieux alors ne pas les utiliser.
+Plusieurs abréviations peuvent également signifier des choses très différentes et porter alors à confusion : IVG pour « insuffisance ventriculaire gauche » ou « interruption volontaire de grossesse », par exemple, et parfois occasionner des erreurs. Mais le plus souvent le contexte oriente vers une signification et une seule, sans ambigüité. Dans le cas de la prescription de médicaments, l'usage de ces abréviations serait responsable de près de 5 % des erreurs, à tel point, qu'une commission américaine a édité une liste « Do Not Use » pointant les erreurs les plus courantes. Il vaut donc mieux alors ne pas les utiliser.
 La plupart de ces abréviations et sigles ne comportent pas de références mais des liens hypertextes renvoyant à leur signification où les références sont nombreuses.
 Sommaire :
 Haut – A
@@ -524,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,9 +554,11 @@
           <t>Lettres grecques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>γGT (gamma GT) ou GGT : gamma-glutamyltranspeptidase[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>γGT (gamma GT) ou GGT : gamma-glutamyltranspeptidase :
 Δg : (delta-g) : diagnostic
 Σ (sigma) : syndrome</t>
         </is>
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,11 +588,13 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>3TC : 2,3-didéoxy-3-thiacytidine
 5-FU : 5-fluroro-uracile
-5-HiAA : 5-hydroxyindole acetic acid, synonyme de A5HIA[4],[5]
+5-HiAA : 5-hydroxyindole acetic acid, synonyme de A5HIA,
 5-HT : 5-hydroxytryptamine
 6-MAM : 6-monoacétylmorphine</t>
         </is>
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,12 +624,14 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A : adénine ou alanine
 A1At : α-1-antitrypsine (aussi αAT ou AAT)
-A5HIA : acide 5-hydroxyindolacétique, synonyme de 5-HiAA, 5-Hydroxyindoleacetic acid en anglais[4],[5]
-AA : aorte ascendante, affection actuelle, acide aminé, air ambiant, anti-arthrosique, allaitement artificiel ou[6]
+A5HIA : acide 5-hydroxyindolacétique, synonyme de 5-HiAA, 5-Hydroxyindoleacetic acid en anglais,
+AA : aorte ascendante, affection actuelle, acide aminé, air ambiant, anti-arthrosique, allaitement artificiel ou
 AAA : anévrisme de l'aorte abdominale ou abcès apical aigu
 AAB : abdomen à blanc équivalent (ou synonyme) d'ASP ( abdomen sans préparation)
 AAC : allergies alimentaires croisées ou angiopathie amyloïde cérébrale
@@ -643,7 +661,7 @@
 ACD : angle colique droit ou acidocétose diabétique
 ACFA : arythmie complète par fibrillation auriculaire
 ACh : acétylcholine
-ACE : antigène carcinoembryonnaire[3], arrière cavité des épiploons ou artère carotide externe
+ACE : antigène carcinoembryonnaire, arrière cavité des épiploons ou artère carotide externe
 ACG : autocontrôle de la glycémie
 ACI : artère carotide interne
 ACJ : arthrite chronique juvénile
@@ -653,12 +671,12 @@
 ACOMI : artériopathie chronique oblitérante des membres inférieurs
 ACP : artère ciliaire postérieure
 ACR : arrêt cardiorespiratoire
-ACSOS : agressions cérébrales secondaires d'origine systémique[7]
+ACSOS : agressions cérébrales secondaires d'origine systémique
 ACT : artemisinin-based combination therapy (thérapie combinée à base d'artémisinine)
-ACTH : adrenocorticotropic hormone (hormone corticotrope)[3]
+ACTH : adrenocorticotropic hormone (hormone corticotrope)
 ACTP : angioplastie coronarienne transluminale percutanée
 ACV : arrêt cardioventilatoire ; aciclovir (et anciennement : accident cérébrovasculaire)
-ad : jusqu'à[8] ou (auricula dexter) oreillette droite atrium droit
+ad : jusqu'à ou (auricula dexter) oreillette droite atrium droit
 AD : arcades dentaires ou autosomique dominant
 ADAMTS-13 : A disintegrin and metalloprotease with thrombospondin type I repeats-13
 ADC : apparent diffusion coefficient (coefficient de diffusion apparent)
@@ -667,11 +685,11 @@
 AdD : accident de décompression
 ADE : facilitation de l'infection par des anticorps (Antibody-dependant enhancement)
 ADEM : encéphalomyélite aigüe disséminée (acute disseminated encephalomyelitis)
-ADH : antidiuretic hormone (hormone antidiurétique)[3] ou alcool déshydrogénase
+ADH : antidiuretic hormone (hormone antidiurétique) ou alcool déshydrogénase
 ADK : adénocarcinome
 ADMD : Association pour le droit de mourir dans la dignité
 ADME : absorption, distribution, métabolisme, élimination
-ADN : acide désoxyribonucléique[3]
+ADN : acide désoxyribonucléique
 ADO : antidiabétiques oraux
 ADP : adénopathie, adénosine diphosphate ou antidépresseur polycyclique
 ADPKD : polykystose rénale autosomique dominante (autosomal dominant polycystic kidney disease)
@@ -708,7 +726,7 @@
 AIC : accident ischémique constitué
 AIM : accident iatrogène médicamenteux
 AINOC : anesthésie inhalée à objectif de concentration
-AINS : anti-inflammatoire non stéroïdien[3]
+AINS : anti-inflammatoire non stéroïdien
 AIP : pneumonie interstitielle aigüe
 AIPP : atteinte à l'intégrité physique ou psychique
 AIR : association des insuffisants respiratoires ou anastomose iléorectale
@@ -721,8 +739,8 @@
 AJPP : allocation journalière de présence parentale
 AK : akinésie
 AL : anesthésie locale
-ALAT : alanine aminotransférase[3]
-ALD : affection longue durée[3], adrénoleucodystrophie ou aliments lactés diététiques
+ALAT : alanine aminotransférase
+ALD : affection longue durée, adrénoleucodystrophie ou aliments lactés diététiques
 ALK : anaplastic lymphoma kinase (kinase du lymphome anaplastique)
 ALM : acral lentiginous melanoma (mélanome lentigineux acral)
 ALP : anesthésie locale paracervicale
@@ -734,16 +752,16 @@
 AMH : (anti-müllerian hormone) hormone de régression müllérienne
 AMI : artère mésentérique inférieure
 AMIR : anomalie microvasculaire intrarétinienne
-AMM : autorisation de mise sur le marché[3]
+AMM : autorisation de mise sur le marché
 AMO : ablation du matériel d'ostéosynthèse
-AMP : adénosine monophosphate, aide médicale à la procréation ou ampoule[8]
-AMPc : AMP cyclique[3]
+AMP : adénosine monophosphate, aide médicale à la procréation ou ampoule
+AMPc : AMP cyclique
 AMS : aire motrice supplémentaire, artère mésentérique supérieure ou aminosalicylé
 AMSOS : agressions médullaires secondaires d'origine systémique
 AMV : acide mévalonique
 ANA : anticorps antinucléaires
 ANC : apports nutritionnels conseillés
-ANCA : anti neutrophilic cytoplasm antibody (anticorps anticytoplasme des polynucléaires neutrophiles)[3]
+ANCA : anti neutrophilic cytoplasm antibody (anticorps anticytoplasme des polynucléaires neutrophiles)
 ANO (+) : AID positif
 ANP : aspiration nasopharyngée ou Atrial Natriuretic Peptide
 ANSM : Agence nationale de sécurité du médicament et des produits de santé
@@ -757,7 +775,7 @@
 APD : anesthésie péridurale
 APECED : Autoimmune PolyEndocrinopathy-Candidiasis-Ectodermal Dystrophy (polyendocrinopathie auto-immune de type 1)
 APCN : aspergillose pulmonaire chronique nécrosante
-APGAR : american pediatric gross assessment record[3]
+APGAR : american pediatric gross assessment record
 APHP : Assistance publique - Hôpitaux de Paris
 API : aspergillose pulmonaire invasive
 aPL : antiphospholipide (anticorps)
@@ -768,7 +786,7 @@
 APS : antipaludéen de synthèse
 APSI : atrésie pulmonaire à septum intact ou allergène préparés spécialement pour un individu
 APSO : atrésie pulmonaire à septum ouvert
-APUD : amine precursor uptake and decarboxylation (groupe de cellules captant et décarboxylant des précurseurs d'amines)[3]
+APUD : amine precursor uptake and decarboxylation (groupe de cellules captant et décarboxylant des précurseurs d'amines)
 APVP : années potentielles de vie perdues[réf. souhaitée]
 AR : autosomique récessif ou anesthésiste-réanimateur
 ARA : American rheumatism association
@@ -780,20 +798,20 @@
 ARH : agence régionale de l'hospitalisation
 ARM : angio-IRM, assistant de régulation médicale
 ARMM : antirhumatismaux modificateurs de la maladie
-ARN : acide ribonucléique[3]
-ARNm : ARN messager[3]
+ARN : acide ribonucléique
+ARNm : ARN messager
 ARS : Agence régionale de santé
 ARV : antirétroviral
 AS : aide-soignant, (auricula sinister) oreillette gauche, atrium gauche, agression sexuelle ou apport suffisant
 ASS : assistant de service social
-ASA : American Society of Anesthesiologists pour la classification du risque opératoire[3]
-ASAT : aspartate aminotransférase[3]
+ASA : American Society of Anesthesiologists pour la classification du risque opératoire
+ASAT : aspartate aminotransférase
 ASC : aire sous la courbe
 ASE : aide sociale à l'enfance
 ASH : agent des services hospitaliers
 ASI : autosondages intermittents
-ASIA : anévrisme du septum interauriculaire ou score ASIA (en) [9]
-ASLO : antistreptolysine O (anticorps)[3]
+ASIA : anévrisme du septum interauriculaire ou score ASIA (en) 
+ASLO : antistreptolysine O (anticorps)
 ASMR : amélioration du service médical rendu
 ASMS : analogue de la somatostatine
 ASP : abdomen sans préparation, avortement spontané précoce ou Amnesis shellfish poisoning (intoxication amnésique par les mollusques)
@@ -814,7 +832,7 @@
 ATM : articulation temporo-mandibulaire
 ATMS : agénésie transverse des membres supérieurs
 ATO : abcès tubo-ovarien
-ATP : adénosine triphosphate[3]
+ATP : adénosine triphosphate
 ATS : antithyroïdien de synthèse, artère temporale superficielle, acute chest syndrome
 ATU : autorisation temporaire d'utilisation
 AUC : area under the curve (aire sous la courbe)
@@ -822,11 +840,11 @@
 AUSP : arbre urinaire sans préparation
 AV : acuité visuelle ou atrioventriculaire
 AVB : accouchement par voie basse
-AVC : accident vasculaire cérébral[3]
+AVC : accident vasculaire cérébral
 AVD : activités de la vie domestique
 AVF : algie vasculaire de la face
-aVf, aVL, aVr : dérivations électrocardiographiques unipolaires[3]
-AVK : anti-vitamine K[3]
+aVf, aVL, aVr : dérivations électrocardiographiques unipolaires
+AVK : anti-vitamine K
 AVP : accident sur la voie publique
 AVQ : activités de la vie quotidienne
 AVT : atrophie villositaire totale
@@ -871,7 +889,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -889,7 +907,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">BAAR : bacille acido-alcoolo-résistant
 BABP : plâtre brachio-antébrachio-palmaire
@@ -905,7 +925,7 @@
 BBK : signe de Babinski
 BBS : maladie de Besnier-Boeck-Schaumann (sarcoïdose)
 BCF : bruit du cœur fœtal
-BCG : bacille de Calmette et Guérin[3]
+BCG : bacille de Calmette et Guérin
 BCMD : base des causes médicales de décès
 BD : bronchodilatateur
 BDA : bouffée délirante aigüe
@@ -919,7 +939,7 @@
 BES : bien-être social ou bilan électrolytique sanguin
 BGN : bacille gram négatif
 BGP : bacille gram positif
-BGSA : biopsies des glandes salivaires accessoires[10]
+BGSA : biopsies des glandes salivaires accessoires
 BH : bilan hépatique
 BHA : bruits hydroaériques
 BHC : bilan hépatique complet
@@ -930,7 +950,7 @@
 BID : (bis in die) deux fois par jour
 BIP : diamètre bipariétal
 BIS : index bispectral
-BK : bacille de Koch[3]
+BK : bacille de Koch
 BLP : bandelette longitudinale postérieure
 BLSE : bêta-lactamase à spectre élargi (ou étendu)
 BM : biopsie médullaire ou brûlures mictionnelles
@@ -944,7 +964,7 @@
 BoNT : neurotoxine botulique
 BOT : tumeur bénigne borderline
 BP : blood patch
-BPCO : bronchopneumopathie chronique obstructive[3]
+BPCO : bronchopneumopathie chronique obstructive
 BPM : battements par minute
 BPO : Bilan préopératoire
 BRAIN : Bénéfices, Risques, Alternatives, Intuition et Nothing
@@ -1000,7 +1020,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1018,7 +1038,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C : cytosine ou cystéine
 C+A : culture + antibiogramme
@@ -1028,7 +1050,7 @@
 CA : canal artériel ou complément d'anamnèse
 CAARUD : centre d'accueil et d'accompagnement à la réduction des risques pour usagers de drogues
 CABG : coronary artery bypass graft surgery (en) (pontage aorto-coronarien)
-CAC : conscience analytique cérébrale [quoi?] ou centre d'accueil et de crise d'urgence[11]
+CAC : conscience analytique cérébrale [quoi?] ou centre d'accueil et de crise d'urgence
 CACI : certificat d'absence de contre-indication (à la pratique du sport)
 CADA : commission d'accès aux documents administratifs ou centre d'accueil des demandeurs d'asile
 CADET : cercle d'action pour le dépistage, l'exploration et le traitement des troubles visuels
@@ -1036,10 +1058,10 @@
 CAI / CAE : conduit auditif interne ou externe
 CAM : complexe d'attaque membranaire
 CAMSP : centre d'action médico-sociale précoce
-CAP : centre antipoison, ou centre d'accueil permanent[12], ou canal artériel persistant
+CAP : centre antipoison, ou centre d'accueil permanent, ou canal artériel persistant
 CAPTV : centre antipoison et de toxicovigilance
 CaSR : Calcium-sensing receptor
-CAT : conduite à tenir[13]
+CAT : conduite à tenir
 CATTP : centre d'accueil thérapeutique à temps partiel
 CB : corpuscule de Barr
 CBC : carcinome bronchopulmonaire ou carcinome basocellulaire
@@ -1056,7 +1078,7 @@
 CCH : crise convulsive hyperthermique
 CCI : cathéter de chambre implantable, commission de conciliation et d'indemnisation ou carcinome canalaire infiltrant
 CCL : conclusion
-CCMH ou CGMH : concentration corpusculaire moyenne en hémoglobine[3]
+CCMH ou CGMH : concentration corpusculaire moyenne en hémoglobine
 CCMR : centre de compétence des maladies rares synonyme de CMR et de CRMR
 CCMU : classification clinique des malades aux urgences
 CCO : charnière cervico-occipitale
@@ -1075,7 +1097,7 @@
 CDR : coxarthrose destructrice rapide
 CdU : chimie des urines
 CE : cholestérol estérifié, corps étranger ou carcinome épidermoïde
-CEC : circulation extracorporelle[3]
+CEC : circulation extracorporelle
 CECOS : centre d'étude et de conservation des œufs et du sperme humains
 CEE : choc électrique externe
 CEIO : corps étranger intraoculaire
@@ -1108,7 +1130,7 @@
 CHUP : chaussure à usage prolongé
 CHUT : chaussure à usage temporaire
 CHX : chirurgie
-CI : cadre infirmier, contre-indication[14] ou chambre implantable
+CI : cadre infirmier, contre-indication ou chambre implantable
 CIA : communication interauriculaire
 CIC : complexes immuns circulants
 CICO : cannot intubate, cannot oxygenate
@@ -1129,9 +1151,9 @@
 CISSS : centre intégré de santé et de services sociaux
 CIUSSS : centre intégré universitaire de santé et de services sociaux
 CIV : communication interventriculaire ou cathéter intraveineux
-CIVD : coagulation intravasculaire disséminée[3]
+CIVD : coagulation intravasculaire disséminée
 CJC : consultations jeunes consommateurs
-CK : créatine kinase[3]
+CK : créatine kinase
 CL : cholestérol ou condyle latéral
 CLAN : comité de liaison en alimentation et nutrition
 CLAT : centre de lutte antituberculeuse
@@ -1164,11 +1186,11 @@
 CMT : cancer médullaire de la thyroïde, courbe ménothermique, maladie de Charcot-Marie-Tooth ou cécité monoculaire transitoire.
 CMU : couverture maladie universelle
 CMUc : couverture maladie universelle complémentaire
-CMV : cytomégalovirus[3]
+CMV : cytomégalovirus
 CMVI : comité des maladies liées aux voyages et des maladies d'importation
 CN : colique néphrétique, clarté nucale ou cerveau neuronal
 CNA : colique néphrétique aigüe
-CNC : complexe de Carney[15]
+CNC : complexe de Carney
 CND : cannabidiol
 CNEDiMTS : commission nationale d'évaluation des dispositifs médicaux et des technologies de santé
 CNH : certificat de non hospitalisation
@@ -1179,7 +1201,7 @@
 CNS : conférence nationale de santé
 CNV : copy number variation (variabilité du nombre de copies)
 co : comprimé (médicaments, au Canada)
-CO : contraceptifs oraux ou monoxyde de carbone[3]
+CO : contraceptifs oraux ou monoxyde de carbone
 COMT : catéchol-O-méthyl-transférase
 COP : contraception œstroprogestative
 COP : pneumonie cryptogénique organisée
@@ -1194,7 +1216,7 @@
 CPEO : chronic progressive external ophthalmoplegia (en) (ophtalmoplégie externe progressive chronique)
 CPF : cancer primitif du foie
 CPIA : contre-pulsion intraaortique
-CPK : créatine phosphokinase[3]
+CPK : créatine phosphokinase
 CPN : consultation prénatale
 CPP : Comité de Protection des Personnes
 CPPo : complications pulmonaires postopératoires
@@ -1212,12 +1234,12 @@
 CRCI : commission régionale de conciliation et d'indemnisation
 CREX : comité de retour d'expérience
 CRF : capacité résiduelle fonctionnelle ou centre de réadaptation fonctionnelle
-CRH : corticotropin releasing hormone (corticolibérine)[3] ou compte-rendu d'hospitalisation
+CRH : corticotropin releasing hormone (corticolibérine) ou compte-rendu d'hospitalisation
 CRIP : cellule de recueil des informations préoccupantes
 CRO : compte-rendu opératoire
 CRMR : centre de référence maladies rares synonyme de CCMR et de CMR
-CRP : C reactive protein (protéine C réactive)[3]
-CRPV : centre régional de pharmacovigilance[16]
+CRP : C reactive protein (protéine C réactive)
+CRPV : centre régional de pharmacovigilance
 CRRA : centre de réception et de régulation des appels (15 du Samu)
 CRRMP : comité régional de reconnaissance des maladies professionnelles
 CRS : crise rénale sclérodermique
@@ -1295,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1313,7 +1335,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">D : aspartate ou acide aspartique
 D+, d+, dlr : douleur
@@ -1347,9 +1371,9 @@
 DCaT : vaccin combiné contre la diphtérie, de type acellulaire contre la coqueluche et contre le tétanos
 DCB : dégénérescence corticobasale
 DCD : décédé ou décompensation cardiaque droite
-DCI : dénomination commune internationale[3]
+DCI : dénomination commune internationale
 DCNC : douleur chronique non cancéreuse
-DCPC : dilatation des cavités pyélocalicielles[17]
+DCPC : dilatation des cavités pyélocalicielles
 DCS : dépense courante de santé
 DD : diagnostic différentiel, délivrance dirigée, D-dimères ou décubitus dorsal
 DDAC : donneur décédé après arrêt circulatoire
@@ -1382,7 +1406,7 @@
 DH+ / dh+ : diarrhée
 DHBNN : dermohypodermite bactérienne non nécrosante (anciennement érysipèle)
 DHE: dihydroergotamine
-DHEA : déhydroépiandrostérone[3]
+DHEA : déhydroépiandrostérone
 DHODH : dihydroorotate déshydrogénase
 DHP: dihydropyrimidine
 DHR : dihydrorhodamine 123 (utilisée dans le diagnostic de la granulomatose septique chronique)
@@ -1391,12 +1415,12 @@
 Diag : diagnostic
 DIC : disseminated intravascular coagulation (coagulation intravasculaire disséminée), déficit immunitaire combiné ou dermatite irritante de contact
 DICS : déficit immunitaire combiné sévère
-DICV : déficit immunitaire commun variable[18]
+DICV : déficit immunitaire commun variable
 DID : diabète insulinodépendant
 die : diebus quotidien (médicaments)
 DIM : département d'information médicale ou dérangement intervertébral mineur (synonyme de syndrome de Maigne)
 DIP : déficit immunitaire primitif
-DISA : disseminated autonomy, forme d'hyperthyroïdie[19]
+DISA : disseminated autonomy, forme d'hyperthyroïdie
 DIT : diiodotyrosine
 DIU : dispositif intra-utérin
 DJ : tube urétéral en double
@@ -1433,14 +1457,14 @@
 DOA : décompensation œdématoascitique
 DOCCU : dépistage organisé du cancer du col de l'utérus
 DOP : défaillance ovarienne prématurée
-DOPA : dihydroxyphénylalanine[3]
+DOPA : dihydroxyphénylalanine
 DP : dialyse péritonéale
 DPAR : déficit pupillaire afférent relatif
 DPC : duodéno-pancréatectomie céphalique (opération de Whipple), dilatation pyélocalicielle ou développement professionnel continu
 DPCA : dialyse péritonéale continue ambulatoire
 DPE : dénutrition protéinoénergétique ou duodéno-pancréatectomie élargie
 DPI : diagnostic préimplantatoire
-DPIG : dosage pondéral des immunoglobulines[20]
+DPIG : dosage pondéral des immunoglobulines
 DPJ : directeur de la protection de la jeunesse
 DPN : diagnostic prénatal
 DPN : dyspnée paroxystique nocturne
@@ -1453,9 +1477,9 @@
 DRESS (Drug Reaction with Eosinophilia and Systemic Symptoms) : syndrome d'hypersensibilité médicamenteuse
 DRO : dérivé réactif de l'oxygène
 DRP : drainage rhinopharyngé
-DRR : décollement de la rétine rhegmatogène ou Digitally Reconstructed Radiography[21] (images radiologiques digitales reconstruites)
+DRR : décollement de la rétine rhegmatogène ou Digitally Reconstructed Radiography (images radiologiques digitales reconstruites)
 DRS : douleur rétrosternale
-DRVVT : Dilute Russell's viper venom time (temps de venin vipère Russel dilué : test d'exploration de l'hémostase[22])
+DRVVT : Dilute Russell's viper venom time (temps de venin vipère Russel dilué : test d'exploration de l'hémostase)
 DS : déviation standard ou détroit supérieur
 DS I / DS II : diabète sucré de type 1 / 2
 DSA : défibrillateur semi-automatique ou donor-specific antibody (en)
@@ -1520,7 +1544,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1538,7 +1562,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">E : glutamate
 E2 : estradiol
@@ -1549,15 +1575,15 @@
 EBH : épidermolyse bulleuse héréditaire
 EBJ : épidermolyse bulleuse jonctionnelle
 EBLSE : entérobactéries productrices de bêta-lactamases à spectre élargi
-EBNA : Epstein-Barr nuclear antigen (antigène nucléaire d'Epstein-Barr)[3]
+EBNA : Epstein-Barr nuclear antigen (antigène nucléaire d'Epstein-Barr)
 EBO : endobrachyœsophage
 EBUS : échoendoscopie bronchique
-EBV : Epstein-Barr virus (virus d'Epstein-Barr)[3]
+EBV : Epstein-Barr virus (virus d'Epstein-Barr)
 ECA : état confusionnel aigu ou enzyme de conversion de l'angiotensine
 ECBC : examen cytobactériologique des crachats
-ECBU : examen cytobactériologique des urines[3]
-ECG : électrocardiogramme[3]
-ECHO virus : enteric cytopathogenic human orphan virus (virus orphelin humain cytopathogénique entéral)[3]
+ECBU : examen cytobactériologique des urines
+ECG : électrocardiogramme
+ECHO virus : enteric cytopathogenic human orphan virus (virus orphelin humain cytopathogénique entéral)
 ECM : état de conscience minimal
 ECMEs : embrochage centromédullaire élastique stable
 ECMO : extracorporeal membrane oxygenation (oxygénation par membrane extracorporelle)
@@ -1577,16 +1603,16 @@
 EDTA : éthylène diamine tétraacétique
 EE : épreuve d'effort ou échoendoscopie
 EEB : échoendoscopie basse
-EEG : électroencéphalogramme[3]
+EEG : électroencéphalogramme
 EEH : échoendoscopie haute
 EEP : exploration électrophysiologique
-EEPOCS : encéphalopathie épileptique avec pointe ondes continues du sommeil[23]
+EEPOCS : encéphalopathie épileptique avec pointe ondes continues du sommeil
 EER : épuration extrarénale
 EES : entrainement électrosystolique
 EF : étude de faisabilité
 EFH : exploration fonctionnelle hépatique
 EFM : expérience aux frontières de la mort
-EFR : épreuve fonctionnelle respiratoire[3]
+EFR : épreuve fonctionnelle respiratoire
 EFS : établissement français du sang ou épiphysiolyse fémorale supérieure
 EFX : Explorations Fonctionnelles à l’eXercice
 EGFR : Epidermal Growth Factor Receptor
@@ -1603,12 +1629,12 @@
 EIC : espace intercostal
 EIG : espace intercostal gauche ou événement indésirable grave
 EIM : effet indésirable médicamenteux
-ELISA : enzyme-linked immunosorbent assay (dosage d'immunoadsorption par enzyme liée)[3]
+ELISA : enzyme-linked immunosorbent assay (dosage d'immunoadsorption par enzyme liée)
 EMA : état de mal asthmatique ; ehrlichiose monocytique animale
 EME : état de mal épileptique ou état de mort encéphalique
 EMEA : équipe mobile pour enfants et adolescents
 EMDR : eye movement desensitization and reprocessing (intégration neuro-émotionnelle par les mouvements oculaires)
-EMG : électromyogramme[3]
+EMG : électromyogramme
 EMH : ehrlichiose monocytique humaine
 EMI : expérience de mort imminente
 EMLA : mélange eutectique d'anesthésiques locaux
@@ -1618,9 +1644,9 @@
 EMSP : équipe mobile en soins palliatifs
 EMTC : état de mal convulsif tonico-clonique
 EMU : examen microscopique des urines
-ENMG : électroneuromyogramme[24]
+ENMG : électroneuromyogramme
 ENPI : énurésie nocturne primaire isolée
-EO : étude d'opportunité ou emballage original (le plus petit)[8]
+EO : étude d'opportunité ou emballage original (le plus petit)
 EOG : électrooculographie
 EOGD : endoscopie œso-gastro-duodénale
 EOH : équipe opérationnelle d'hygiène hospitalière
@@ -1631,7 +1657,7 @@
 EPO : érythropoïétine
 EPP : électrophorèse des protéines plasmatiques
 EPR : electronic patient record (dossier patient électronique), état pauci-relationnel ou événement porteur de risque
-EPS : électrophorèse des protéines sériques, examen parasitologique des selles ou examen de prévention en santé[25]
+EPS : électrophorèse des protéines sériques, examen parasitologique des selles ou examen de prévention en santé
 EPSM : établissement public de santé mentale
 EPU : électrophorèse des protéines urinaires
 EPV : espace périvitellin
@@ -1698,7 +1724,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1716,7 +1742,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">F : femme ou phénylalanine
 FA : fibrillation atriale ou fontanelle antérieure
@@ -1750,7 +1778,7 @@
 FGF : fibroblast growth factor (facteur de croissance des fibroblastes)
 FH : flèche hépatique
 FHV : fièvre hémorragique virale
-FiO2 : fraction inspirée en oxygène[3]
+FiO2 : fraction inspirée en oxygène
 FID : fosse iliaque droite
 FIG : fosse iliaque gauche
 FIP : Familial Interstitial Pneumonia (pneumonie interstitielle familiale)
@@ -1782,7 +1810,7 @@
 FRCV : facteur de risque cardiovasculaire
 FSC : formule sanguine complète ou fausse couche spontanée
 FSE : feuille de soins électronique
-FSH : follicle stimulating hormone (hormone folliculo-stimulante)[3]
+FSH : follicle stimulating hormone (hormone folliculo-stimulante)
 FSP : feuille de soins papier
 FSR : flux sanguin rénal
 FT : facteur tissulaire
@@ -1829,7 +1857,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1847,7 +1875,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">G : guanine ou glycine
 G-CSF : facteur stimulant les colonies de granulocytes (Granulocyte colony-stimulating factor)
@@ -1856,7 +1886,7 @@
 GAFA : glaucome aigu par fermeture de l'angle
 GAJ : glycémie à jeun
 GAMF : guichet d'accès aux médecins de famille
-GB : globule blanc[3]
+GB : globule blanc
 GC : glucocorticoïdes
 GCAO : glaucome chronique à angle ouvert
 GCS (Glasgow coma scale) : score de Glasgow
@@ -1869,9 +1899,9 @@
 GEMSA : Groupes d'étude multicentrique des services d'accueil
 GEU : grossesse extra-utérine
 GFA : glaucome en fermeture d'angle
-GGT ou γGT : gamma-glutamyltranspeptidase[3]
-GH : growth hormone (hormone somatotrope)[3]
-GH-RH : GH-releasing hormone (hormone activatrice de l'hormone de croissance)[3]
+GGT ou γGT : gamma-glutamyltranspeptidase
+GH : growth hormone (hormone somatotrope)
+GH-RH : GH-releasing hormone (hormone activatrice de l'hormone de croissance)
 GHB : gamma-hydroxybutyrate ou acide gamma-hydroxybutyrique (drogue du viol)
 GHM : groupe homogène de malade
 GHS : groupe homogène de séjour
@@ -1902,12 +1932,12 @@
 GPAO : glaucome primitif à angle ouvert
 GPE : gastrostomie percutanée endoscopique
 GPN : glaucome à pression normale
-GPR : gastrostomie percutanée radiologique[26]
+GPR : gastrostomie percutanée radiologique
 GPS : gangrène périnéoscrotale
-GR : globule rouge[3]
+GR : globule rouge
 GREC : « glace, repos, élévation, contention » (après entorse de la cheville)
 GRP: Gastrin releasing peptide (bombésine)
-GVH : graft versus host (réaction du greffon contre l'hôte)[3]
+GVH : graft versus host (réaction du greffon contre l'hôte)
 GVM : grande valve mitrale
 Sommaire :
 Haut – A
@@ -1946,7 +1976,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1964,7 +1994,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">H : homme ou histidine
 HAA : hémoculture aéro-anaérobie
@@ -1974,16 +2006,16 @@
 HAS : Haute Autorité de santé
 HAT : hystérectomie abdominale totale ou histone acétyltransférase
 HAV : hallucination acousticoverbale
-Hb : hémoglobine[3]
-HbA1C : hémoglobine glyquée[3]
+Hb : hémoglobine
+HbA1C : hémoglobine glyquée
 HBAG : hémibloc antérieur gauche
-HbO2 : oxyhémoglobine[3]
+HbO2 : oxyhémoglobine
 HBOT : hyperbaric Oxygen Therapy (médecine hyperbare)
 HBP : hypertrophie bénigne de la prostate
-HBPM : héparine de bas poids moléculaire[3]
+HBPM : héparine de bas poids moléculaire
 HBPG : hémibloc postérieur gauche
 HC : hémoculture, hypochondre, hospitalisation complète ou hypercalorique
-HCG : human chorionic gonadotropin (hormone gonadotrophine chorionique)[3]
+HCG : human chorionic gonadotropin (hormone gonadotrophine chorionique)
 HCP : hydrocéphalie
 HCS : hyperplasie congénitale des surrénales
 HCSP : haut conseil de la santé publique
@@ -1993,12 +2025,12 @@
 HDF : hémodiafiltration
 HDJ : hôpital de jour
 HDH : histoire de l'hospitalisation ou hémorragie digestive haute
-HDL : high density lipoprotein (lipoprotéine de haute densité)[3]
+HDL : high density lipoprotein (lipoprotéine de haute densité)
 HdM ou HDLM : histoire de la maladie
 HDT : hospitalisation à la demande d'un tiers
 HE : hyperéosinophilie, huile essentielle ou coloration à l'hématoxyline et à l'éosine
 HED : hématome extradural ou hématome épidural
-HELLP : hemolysis, elevated liver enzymes, low platelets (syndrome d'hémolyse-hépatocytolyse-thrombopénie)[3]
+HELLP : hemolysis, elevated liver enzymes, low platelets (syndrome d'hémolyse-hépatocytolyse-thrombopénie)
 HER2 : Human Epidermal Growth Factor Receptor-2
 HES : coloration à l'hématoxyline, éosine et safran
 HFNC : High Flow Nasal Cannula (Oxygénothérapie nasale à haut débit ou optiflow)
@@ -2018,7 +2050,7 @@
 HIV : human immunodeficiency virus (virus de l'immunodéficience humaine) ou hémorragie intravitréenne
 HJ : hôpital de jour
 HK : hypokinésie (maladie cardiaque)
-HLA : human leucocyte antigen (antigène de leucocyte humain)[3]
+HLA : human leucocyte antigen (antigène de leucocyte humain)
 HLC : hyperleucocytose
 HLH : hémianopsie latérale homonyme
 HLM : hématies et leucocytes par minute
@@ -2042,14 +2074,14 @@
 HPN : hydrocéphalie à pression normale ou hémoglobinurie paroxystique nocturne
 HPP : hypertension pulmonaire primitive (renommée en HTAP) ou hémorragie du post-partum
 HPRIM : Harmoniser et promouvoir l'informatique médicale
-HPV : human papillomavirus (papillomavirus humain)[3]
+HPV : human papillomavirus (papillomavirus humain)
 HRA : hyperréflexion autonome
 HRB : hyperréactivité bronchique
 HRP : hématomes rétropéritonéaux ou hématome rétroplacentaire
 HRS : hyperréflexie sympathique
 HRT : hystérectomie radicale totale
 HS : hypersensibilité ou hora somni (avant le coucher)
-HSA : hémorragie sous-arachnoïdienne ou halte soins addictions[27]
+HSA : hémorragie sous-arachnoïdienne ou halte soins addictions
 HSC : hypersensibilité sinocarotidienne ; hystéroscopie
 HSC-CB : hystéroscopie et curage biopsique
 HSD : hématome sous-dural
@@ -2066,7 +2098,7 @@
 hTAO : Hypotension orthostatique
 HTAP : Hypertension artérielle pulmonaire
 HTIC : hypertension intracrânienne
-HTLV : Human T-lymphotropic virus (virus T-lymphotrope humain)[3]
+HTLV : Human T-lymphotropic virus (virus T-lymphotrope humain)
 HTO : hypertension oculaire ou hypotension orthostatique
 HTP : hypertension portale
 HU : hématurie ou hauteur utérine
@@ -2112,7 +2144,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2130,16 +2162,18 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">I : inosine ou isoleucine
 IA : insuffisance aortique (voir aussi valvulopathie cardiaque) ou intra-artériel
 IAA : intoxication alcoolique aigüe
-IAC : insémination artificielle avec sperme du conjoint[28]
+IAC : insémination artificielle avec sperme du conjoint
 IAD : insémination artificielle avec don de sperme
 IADE : infirmier(-ière) d'anesthésie diplômé(e) d'État
 IADL : instrumental activities of daily living
-IAH : index d'apnée-hypopnée[29] , insuffisance antéhypophysaire
+IAH : index d'apnée-hypopnée , insuffisance antéhypophysaire
 IAM : interaction médicamenteuse
 IAMI : insuffisance artérielle du membre inférieur
 IAO : infirmier d'accueil et orientation (aux urgences) ou insuffisance aortique
@@ -2149,7 +2183,7 @@
 IBS : infection bactérienne septicémique
 IC : insuffisance cardiaque, coronaire ou index cardiaque
 ICALIN : indicateur composite des activités de lutte contre les infections nosocomiales
-ICANS : Immune Effector Cell-Associated Neurotoxicity Syndrome[30]
+ICANS : Immune Effector Cell-Associated Neurotoxicity Syndrome
 ICATB : indice composite du bon usage des antibiotiques
 ICD : insensibilité congénitale à la douleur, insuffisance cardiaque droite ou International classification of diseases
 ICG : insuffisance cardiaque gauche ou indocyanine green (vert d'indocyanine)
@@ -2164,10 +2198,10 @@
 IDG : infirmier de garde
 IDL : intemediate-density lipoproteins
 IDM : infarctus du myocarde
-IDR : intradermoréaction[3]
+IDR : intradermoréaction
 IDV : indinavir
 IEA : intoxication ethylique aigüe
-IEC : inhibiteur de l'enzyme de conversion[3]
+IEC : inhibiteur de l'enzyme de conversion
 IECA : inhibiteur de l'enzyme de conversion de l'angiotensine
 IEM : institut d'éducation motrice
 IEPP : immuno-électrophorèse des protéines plasmatiques
@@ -2183,8 +2217,8 @@
 IFSI : institut de formation en soins infirmier
 IFT : impotence fonctionnelle totale
 IG : Indice glycémique
-Ig : immunoglobuline[3]
-IGF : insulin-like growth factor (somatomédine)[3]
+Ig : immunoglobuline
+IGF : insulin-like growth factor (somatomédine)
 IGH : infection génitale haute
 IH: insuffisance hépatique
 IHA : inhibition de l’hémagglutination
@@ -2196,7 +2230,7 @@
 ILA : infection du liquide d'ascite
 ILC : cellule lymphoïde innée (innate lymphoid cells) ou infections liées aux cathéters
 IM : insuffisance mitrale, injection intramusculaire, infarctus du myocarde, interactions médicamenteuses ou intra-musculaire
-IMAO : inhibiteur de monoamine oxydase[3]
+IMAO : inhibiteur de monoamine oxydase
 IMC : infirmité motrice cérébrale ou indice de masse corporelle
 IME : institut médicoéducatif
 IMF : infection materno-fœtale
@@ -2212,7 +2246,7 @@
 INH : isoniazide
 INM : intervention non-médicamenteuse
 INPES : Institut national de prévention et de promotion de la santé
-INR : international normalized ratio (rapport normalisé international)[3]
+INR : international normalized ratio (rapport normalisé international)
 InVS : Institut de veille sanitaire
 IO : voie intraosseuse, infection opportuniste
 IOA : infection ostéoarticulaire, infirmière organisatrice de l'accueil
@@ -2224,7 +2258,7 @@
 IPD : (articulation) interphalangienne distale ou infection du pied diabétique
 IPDE : infirmière puéricultrice diplômée d'état
 IPDE5 : inhibiteur de la phosphodiestérase type 5
-IPe : insuffisance veineuse des perforantes ou insuffisance pancréatique exocrine[31]
+IPe : insuffisance veineuse des perforantes ou insuffisance pancréatique exocrine
 IPI: International Pronostic Index
 IPOA : infection sur prothèse ostéoarticulaire
 IPP : inhibiteur de la pompe à protons ou (articulation) interphalangienne proximale
@@ -2242,7 +2276,7 @@
 IREPS : instance régionale d'éducation et de promotion santé
 IRF : insuffisance rénale fonctionnelle
 IRFSS : institut régional de formation sanitaire et social (IFSI de la croix rouge française )
-IRM : imagerie par résonance magnétique[3]
+IRM : imagerie par résonance magnétique
 IRS : inhibiteur de la recapture de la sérotonine
 IRSNA : inhibiteur de la recapture de la sérotonine et de la noradrénaline
 IS : immunosuppression ou insuffisance sphinctérienne
@@ -2261,12 +2295,12 @@
 ITK : inhibiteur de tyrosine kinase
 ITL : infection tuberculeuse latente
 ITO : induction de tolérance (alimentaire) orale
-ITT : incapacité temporaire totale[3] ou intention de traiter
+ITT : incapacité temporaire totale ou intention de traiter
 IU : infection urinaire ou incontinence urinaire
 IUC : ionogramme urée créatinine
 IUTR : incontinence urinaire transitoire et réversible
 IUU : incontinence urinaire par urgenturie
-IV : intraveineuse[3] ou insuffisance veineuse
+IV : intraveineuse ou insuffisance veineuse
 IVA : artère interventriculaire antérieure (artère coronaire)
 IVC : insuffisance veineuse chronique
 IVD : insuffisance ventriculaire droite ou intraveineuse directe
@@ -2316,7 +2350,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2334,7 +2368,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">JDE : jonction dermo-épidermique
 JNM : jonction neuromusculaire
@@ -2378,7 +2414,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2396,7 +2432,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">K : cancer, carcinome, lysine, potassium ou dilution korsakovienne
 Ka : kaliémie
@@ -2404,7 +2442,7 @@
 KH : kyste hydatique, dans l'hydatidose
 KOA : kyste osseux anévrysmal
 KOD : kyste de l'ovaire droite
-KPS : kératite ponctuée superficielle[32]
+KPS : kératite ponctuée superficielle
 KS : kératose séborrhéique
 KSC : kyste sacrococcygien
 KT : cathéter
@@ -2448,7 +2486,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2466,7 +2504,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">L : leucine
 LA : liquide amniotique, leucémie aigüe ou liquide d’ascite
@@ -2491,12 +2531,12 @@
 LCC : longueur craniocaudale
 LCH : luxation congénitale de hanche
 LCP : ligament croisé postérieur
-LCR : liquide céphalorachidien[3]
+LCR : liquide céphalorachidien
 LCS : liquide cérébrospinal
 LDC : levée de corps
 LDGCB : lymphome diffus à grandes cellules B
-LDH : lactate déshydrogénase[3]
-LDL : low density lipoprotein (lipoprotéine de basse densité)[3]
+LDH : lactate déshydrogénase
+LDL : low density lipoprotein (lipoprotéine de basse densité)
 LEAD : lupus érythémateux aigu disséminé
 LEC : lithotritie extracorporelle
 LED : lupus érythémateux disséminé
@@ -2506,8 +2546,8 @@
 LGL : leucémie à grands lymphocytes granuleux
 LGM : lésions glomérulaires minimes
 LGV : lymphogranulome vénérien
-LH : luteinizing hormone (gonadostimuline)[3]
-LH-RH : luteinizing hormone releasing hormone (gonadolibérine)[3]
+LH : luteinizing hormone (gonadostimuline)
+LH-RH : luteinizing hormone releasing hormone (gonadolibérine)
 LHSS : lits halte soins santé
 LID : lobe inférieur droit
 LIE : lymphocytose intraépithéliale
@@ -2576,7 +2616,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2594,7 +2634,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">M : méthionine
 MA : maladie d'Alzheimer
@@ -2606,7 +2648,7 @@
 MAG : Myelin-Associated Glycoprotein
 MAI : maladie auto-immune
 MAIA : maison pour l'autonomie et l'intégration des malades d'Alzheimer
-MALT : mucous associated lymphoid tissue (tissu lymphoïde associé aux muqueuses)[3]
+MALT : mucous associated lymphoid tissue (tissu lymphoïde associé aux muqueuses)
 MAO : médecin d'accueil et d'orientation (aux urgences)
 MAP : menace d'accouchement prématuré
 MAPA : monitorage ambulatoire de la pression artérielle
@@ -2677,7 +2719,7 @@
 MMR : mismatch repair
 MMS : mini-mental state (test de dépistage des démences)
 MNA : mini-nutritional assesment : évaluation de l'état nutritionnel
-MNI : mononucléose infectieuse[3]
+MNI : mononucléose infectieuse
 MO : microscopie optique
 Mô : morphine
 MOCA : montreal cognitive assessment
@@ -2704,7 +2746,7 @@
 MSO: médicament de substitution aux opiacés
 MSP : mise en situation professionnelle (étude d'infirmier)
 MSI : instabilité des microsatellites
-MST : maladie sexuellement transmissible[3]
+MST : maladie sexuellement transmissible
 MT : médecin traitant
 MTE : maladie thromboembolique ou marge thérapeutique étroite
 MTEV: maladie thromboembolique veineuse
@@ -2760,7 +2802,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2778,7 +2820,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">N : normal ou asparagine
 N+ / n+ : nausée
@@ -2793,14 +2837,14 @@
 NCB : névralgie cervicobrachiale
 NCC: cotransporteur sodium-chlore
 NCM : néphropathie à cylindres myélomateux
-NCT : National Clinical Trial (se réfère au numéro d'enregistrement d'un essai clinique dans la base de données ClinicalTrials.gov)[33]
+NCT : National Clinical Trial (se réfère au numéro d'enregistrement d'un essai clinique dans la base de données ClinicalTrials.gov)
 NCX: échangeur sodium / calcium
 NDS : niveau de soins
 NEDC : nutrition entérale à débit constant
 NEM : néoplasie endocrinienne multiple
 NET : nécrolyse épidermique toxique ou neuroendocrine tumor
 NF : neurofibromatose
-NFS : numération formule sanguine[3]
+NFS : numération formule sanguine
 NGF : nerve growth factor
 NGS : next generation sequencing (séquençage de nouvelle génération)
 NHA : niveau hydroaérique
@@ -2809,7 +2853,7 @@
 NIC : néphropathie interstitielle chronique
 NIIA : néphropathie interstitielle immuno-allergique
 NIS : symport Na/I
-NK : natural killer (lymphocyte tueur naturel)[3]
+NK : natural killer (lymphocyte tueur naturel)
 NL : normal
 NLP : neuroleptiques
 NLPC : néphrolithotomie percutanée
@@ -2877,7 +2921,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2895,14 +2939,16 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">O : pyrrolysine
 O2T : oxygénothérapie
 OAD : one a day (une fois par jour) ou (artère sur une vue) oblique antérieure droite
 OAF : Osteoclast activating factor (facteur d'activation des Ostéoclastes)
 OAHP : ostéoarthropathie hypertrophiante pneumique
-OAP : œdème aigu du poumon[3]
+OAP : œdème aigu du poumon
 OACR : occlusion de l'artère centrale de la rétine
 OAT : oligoasthénotératospermie
 OB : ouverture de bouche
@@ -2932,7 +2978,7 @@
 OMC : œdème maculaire cystoïde
 OMI : œdème des membres inférieurs
 OMPK : syndrome des ovaires polykystiques
-OMS : Organisation mondiale de la santé[3]
+OMS : Organisation mondiale de la santé
 ONA : ostéonécrose aseptique
 ONB : oxygénothérapie normobare
 ONHD : oxygénothérapie nasale à haut débit
@@ -2944,7 +2990,7 @@
 OPP : ordonnance de placement provisoire
 OPS : orange palpebral spots
 OPT : orthopantomogramme
-ORL : otorhinolaryngologie[3]
+ORL : otorhinolaryngologie
 ORN : ostéoradionécrose
 ORS : observatoire régional de santé
 ORSAN : organisation de la réponse du système sanitaire
@@ -2994,7 +3040,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3012,7 +3058,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">p : bras court d'un chromosome (génétique)
 P : proline
@@ -3031,9 +3079,9 @@
 PAI : projet d'accueil individualisé
 PAL : phosphatase alcaline
 PAM : pression artérielle moyenne, polyangéite microscopique, plaque aréolomamelonnaire ou modulation d'impulsions en amplitude
-PAN : périartérite noueuse[3]
+PAN : périartérite noueuse
 PANIA : pression artérielle non invasive automatisée
-PaO2 : pression artérielle partielle en oxygène[3]
+PaO2 : pression artérielle partielle en oxygène
 PAPO : pression artérielle pulmonaire d'occlusion (= pression capillaire)
 PAR : polyarthrite rhumatoïde (utilisé au Canada français)
 PARC : Pseudomonas aeruginosa intermédiaire/résistant à la ceftazidime
@@ -3061,7 +3109,7 @@
 PCM : pâleur cutanéomuqueuse
 PCN : périmètre crânien de naissance
 PCP : pression capillaire pulmonaire
-PCR : polymerase chain-reaction (réaction en chaîne par polymérase)[3] ou ponction céphalorachidienne
+PCR : polymerase chain-reaction (réaction en chaîne par polymérase) ou ponction céphalorachidienne
 PCSK9 : proprotéine convertase subtilisine/kexine de type 9
 PCT : procalcitonine, pli cutané tricipital
 PD : péridurale
@@ -3069,8 +3117,8 @@
 PDAI : perineal disease activity index, pemphigus disease activity index
 PDC : perte de connaissance, produit de contraste ou personne de confiance
 PDE : phosphodiestérase
-PDF : produit de dégradation de la fibrine[3]
-PDGF : platelet-derived growth factor (facteur de croissance des plaquettes)[3]
+PDF : produit de dégradation de la fibrine
+PDGF : platelet-derived growth factor (facteur de croissance des plaquettes)
 PDL : produit dose x longueur en radiologie
 PDP : prélèvement distal protégé
 PDS : prise de sang
@@ -3131,7 +3179,7 @@
 PMAD : programme de maintien à domicile ou problème de maintien à domicile
 PMD : psychose maniaco-dépressive (appelée dorénavant trouble bipolaire)
 PMH : préparation magistrale homéopathique
-PMI : Protection maternelle et infantile[3] ou prescription médicamenteuse inappropriée
+PMI : Protection maternelle et infantile ou prescription médicamenteuse inappropriée
 PMK : pacemaker
 PMO : prélèvements multi-organes
 PMP : pacemaker permanent
@@ -3141,11 +3189,11 @@
 PMT : protéine microsomale de transfert des triglycérides
 PN : polynucléaire ou poids de naissance
 PNA : pyélonéphrite aigüe
-PNB : polynucléaire basophile[3]
+PNB : polynucléaire basophile
 PNC : pénicilline
-PNE : polynucléaire éosinophile[3]
+PNE : polynucléaire éosinophile
 PNI : pression artérielle non invasive
-PNN : polynucléaire neutrophile[3]
+PNN : polynucléaire neutrophile
 PNO : pneumothorax
 PNP : pneumopathie, polyneuropathie ou pneumopéritoine
 po : per os (administration de médicaments ou de nourriture par voie orale)
@@ -3184,7 +3232,7 @@
 PrP : prion proteine
 PRV : point de regroupement des victimes
 PS : pertes sanguines ou premier secours
-PSA : prostatic specific antigen (antigène prostatique spécifique)[3], plaque simple de l'abdomen (voir radiographie), pseudarthrose ou périmétrie statique automatisée
+PSA : prostatic specific antigen (antigène prostatique spécifique), plaque simple de l'abdomen (voir radiographie), pseudarthrose ou périmétrie statique automatisée
 PSDP : pneumocoque de sensibilité diminuée à la pénicilline
 PSE : pousse-seringue électrique
 PSF : pleurésie sérofibrineuse
@@ -3198,9 +3246,9 @@
 PTG : prothèse totale de genou
 PTH : parathyroïd hormone (parathormone) ou prothèse totale de hanche
 PTHrp : parathyroïd hormone related peptide
-PTHS : syndrome de Pitt Hopkins[34]
+PTHS : syndrome de Pitt Hopkins
 PTI / PTAI : purpura thrombopénique immunologique / auto-immun
-PTLD : Post-Transplant Lymphoproliferative Disease [35]
+PTLD : Post-Transplant Lymphoproliferative Disease 
 PTSD : post-traumatic stress disorder (syndrome de stress post-traumatique)
 PTT : purpura thrombotique thrombocytopénique
 PTU : propylthiouracile
@@ -3214,7 +3262,7 @@
 PVE : paludisme viscéral évolutif
 PVM : petite valve mitrale
 PVVIH : personne vivant avec le VIH
-PXE : pseudoxanthome élastique[36]
+PXE : pseudoxanthome élastique
 Sommaire :
 Haut – A
 B
@@ -3252,7 +3300,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3270,20 +3318,22 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">q : bras long d'un chromosome
 Q : glutamine
 Q-AAP : questionnaire sur l'aptitude à l'activité physique
 Qc : Débit cardiaque
 QD : quaque die (chaque jour, pour une prise de médicament)
-QI : quotient intellectuel[3]
+QI : quotient intellectuel
 QID : quatro in die (quatre fois par jour)
-QRS : complexe QRS[3]
+QRS : complexe QRS
 QS : question spécifique, abréviation fréquemment utilisée dans les livres de préparation à l'ECN ou Quantum satis, équivalent international de QSP
 QSOFA : Quick Sepsis-related Organ Failure Assessment
-QSP : quantité suffisante pour[3]
-QT : segment QT[3]
+QSP : quantité suffisante pour
+QT : segment QT
 Sommaire :
 Haut – A
 B
@@ -3321,7 +3371,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3339,7 +3389,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">R : arginine
 RA : rétrécissement aortique, rachianesthésie, réserves alcalines (HCO3-), rebond d'adiposité ou récepteur des androgènes
@@ -3354,7 +3406,7 @@
 RAM : rupture artificielle des membranes ou rééducation à la marche (médecine physique et de réadaptation)
 RAo : rétrécissement aortique
 RAP : résistance artérielle pulmonaire
-RAST : radioallergosorbant test (dosage radio immunologique des IgE spécifiques d’un allergène)[3]
+RAST : radioallergosorbant test (dosage radio immunologique des IgE spécifiques d’un allergène)
 RAT : retour au travail
 RAU : rétention aigüe d'urine
 RB : rétinopathie diabétique
@@ -3385,7 +3437,7 @@
 RFNH : réaction fébrile non hémolytique
 RFNL : retina nerve fiber layer (fibres nerveuses rétiniennes péripapillaires)
 RGO : reflux gastro-œsophagien
-Rh : rhésus[3]
+Rh : rhésus
 RH : restriction hydrique
 RHD : règles hygiénodiététiques
 RHI : réaction d'hypersensibilité immédiate
@@ -3397,7 +3449,7 @@
 RIVA : rythme idioventriculaire accéléré
 RM : rétrécissement mitral
 RMM : revue de mortalité et de morbidité
-RMN : résonance magnétique nucléaire[3]
+RMN : résonance magnétique nucléaire
 RMO : référence médicale opposable
 RMS : réaction médicamenteuse secondaire
 RNP : référence nutritionnelle de population
@@ -3489,7 +3541,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3507,7 +3559,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">S : sérine
 SA : semaines d'aménorrhée, soins ambulatoires ou syndrome d'Asperger
@@ -3545,7 +3599,7 @@
 SBT : surface brûlée totale
 SC : sous-cutanée ou surface corporelle
 SCA : syndrome coronarien aigu (moins usité)
-SCAPL : syndrome catastrophique des antiphospholipides[37]
+SCAPL : syndrome catastrophique des antiphospholipides
 SCB : surface corporelle brûlée
 SCHV : syndrome clinique d'hyperactivité vésicale
 SCI : syndrome du côlon irritable
@@ -3592,7 +3646,7 @@
 SIC : substance interceullaire
 SID : sensible, indolore, dépressible (lors de l'examen abdominal)
 SID : semel in die (une fois par jour, pour les médicaments)
-SIDA : syndrome d'immunodéficience acquise[3]
+SIDA : syndrome d'immunodéficience acquise
 SIH : système d'information hospitalier
 SII : syndrome de l'intestin irritable
 SINTES : Système d'Identification National des Toxiques et Substances
@@ -3634,7 +3688,7 @@
 SOB : salpingo-ovariectomie bilatérale
 SOC : syndrome otite-conjonctivite
 SOFA : Sepsis-related Organ Failure Assessment
-SOH : syndrome d'obésité et hypoventilation (synonyme de syndrome de Pickwick)[38]
+SOH : syndrome d'obésité et hypoventilation (synonyme de syndrome de Pickwick)
 SOP : soins opératoires ou syndrome ovarien polykystique
 SOPK : syndrome des ovaires polykystiques
 SOR : surface de l'orifice régurgitant
@@ -3660,7 +3714,7 @@
 SPSC : soins psychiatriques sans consentement
 SPUPD : syndrome polyuropolydipsique
 SRAA : système rénine-angiotensine-aldostérone ou substance réticulée activatrice ascendante
-SRAS : syndrome respiratoire aigu sévère[3]
+SRAS : syndrome respiratoire aigu sévère
 SRIS : syndrome de réponse inflammatoire systémique
 SRO : solutés de réhydratation orale
 SS : souffle systolique
@@ -3731,7 +3785,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3749,7 +3803,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">T : thymine, thréonine, testostérone ou thymus
 T0 : thyronine
@@ -3757,11 +3813,11 @@
 T2 : 3,3'-Diiodothyronine
 T2A : tarification à l'activité
 T21 : trisomie 21
-T3 : triiodothyronine[3]
-T4 : thyroxine[3]
+T3 : triiodothyronine
+T4 : thyroxine
 TA : tension artérielle, tentative d'autolyse, trou anionique, température ambiante ou tissu adipeux
 TAAN : test d'amplification des acides nucléiques (réaction en chaîne par polymérase)
-TAC : Trouble d'accumulation compulsive[39],[40]
+TAC : Trouble d'accumulation compulsive,
 TAC : traitement anticoagulant
 TABC : tronc artériel brachiocéphalique
 TAC/FA : tachyarythmie complète par fibrillation atriale (= auriculaire)
@@ -3775,14 +3831,14 @@
 TBG : thyroxine-binding globulin (Globuline liant la thyroxine)
 TBO : tumeur borderline ovarienne
 TC : traumatisme crânien, tissu conjonctif ou tronc cérébral
-TCA : trouble du comportement alimentaire ou temps de céphaline activée[3]
+TCA : trouble du comportement alimentaire ou temps de céphaline activée
 TCC : traumatisme craniocérébral ou thérapie comportementale et cognitive ou trouble de la conduite et du comportement
 TCCL : traumatisme craniocérébral léger
 TCCNA : traumatisme craniocérébral non accidentel
 TCG : troubles crâniens graves
 TCH : transplantation de cellules souches hématopoïétiques
-TCK : temps de céphaline kaolin[3]
-TCMH : teneur corpusculaire moyenne en hémoglobine[3]
+TCK : temps de céphaline kaolin
+TCMH : teneur corpusculaire moyenne en hémoglobine
 TCNA : traumatisme crânien non accidentel
 TcPO2 : mesure transcutanée de la pression partielle d'oxygène
 TD: troubles digestifs
@@ -3790,7 +3846,7 @@
 TDAH : trouble du déficit de l'attention avec ou sans hyperactivité
 tDCS : stimulation transcrânienne à courant direct
 TDD : tableau de description
-TDM : tomodensitométrie[3] (synonyme de scanner)
+TDM : tomodensitométrie (synonyme de scanner)
 TDM6 : test de marche de 6 minutes
 TdP : torsades de pointes
 TDR : test de diagnostic rapide ou troubles du rythme cardiaque
@@ -3799,7 +3855,7 @@
 TEG : trouble d'état général
 TEMP : tomographie à émission monophotonique
 TENS : transcutanous electrical nerve stimulation (neurostimulation électrique transcutanée)
-TEP : tomographie par émission de positons, tuberculose extra pulmonaire[3], temps-espace-personne ou thérapie d'exposition prolongée
+TEP : tomographie par émission de positons, tuberculose extra pulmonaire, temps-espace-personne ou thérapie d'exposition prolongée
 TET : tube endotrachéal
 TEVAR : thoracic endovascular aneurysm repair (traitement endovasculaire de l'aorte thoracique)
 TFI : troubles fonctionnels intestinaux
@@ -3808,10 +3864,10 @@
 TFT : traumatisme fermé du thorax
 Tg : thyroglobuline
 TG : triglycérides
-TGMH : teneur globulaire moyenne en hémoglobine[3]
+TGMH : teneur globulaire moyenne en hémoglobine
 TGNSM : tumeur germinale non séminomateuse
-TGO : transaminase glutamooxaloacétique[3]
-TGP : transaminase glutamopyruvique[3]
+TGO : transaminase glutamooxaloacétique
+TGP : transaminase glutamopyruvique
 TGV : transposition des gros vaisseaux
 TQ : temps de Quick (test de coagulation lié au taux de prothrombine)
 THC : tétrahydrocannabinol
@@ -3843,23 +3899,23 @@
 Tn, TnIc, TnTc : troponine, troponine I cardiaque, troponine T cardiaque
 TNC : trouble neurocognitif
 TNCM : trouble neurocognitif majeur
-TND : testicule non descendu[41]
+TND : testicule non descendu
 TNE : tumeur neuroendocrine
 TNF : tumor necrosis factor (facteur de nécrose tumorale, voir aussi famille du facteur de nécrose tumorale)
 TNG : tube nasogastrique
-TNM : tumor nodes metastasis (classification tumeur-nœuds-métastases[3])
+TNM : tumor nodes metastasis (classification tumeur-nœuds-métastases)
 TNT : test non tréponémique
 TO : tension oculaire
 TOC : trouble obsessionnel compulsif
-TOCRI : toux chronique réfractaire ou inexpliquée[42]
+TOCRI : toux chronique réfractaire ou inexpliquée
 ToF : Train of four (train-de-quatre) ou time of flight
 TOGD : transit œsogastroduodénal
 TOP: trouble oppositionnel avec provocation, temps d'occlusion plaquettaire
-TP : taux de prothrombine[3] ou transplantation ou trouble panique
+TP : taux de prothrombine ou transplantation ou trouble panique
 t-PA : tissue plasminogen activator (activateur tissulaire du plasminogène)
 TPA : thyroperoxydase
 TPC : test postcoïtal
-TPHA : treponema pallidum haemagglutination assay (dosage par hémagglutination de Treponema pallidum)[3]
+TPHA : treponema pallidum haemagglutination assay (dosage par hémagglutination de Treponema pallidum)
 TPMT: thiopurine méthyltransférase
 TPO : thyroperoxydase ou thrombopoïétine ou test de provocation orale
 TPP : thrombophlébite profonde
@@ -3870,11 +3926,11 @@
 TRALI : transfusion related acute lung injury (Œdème pulmonaire lésionnel post-transfusionnel)
 TRAPS : Tumor necrosis factor Receptor Associated Periodic Syndrome
 TRC : temps de recoloration cutanée pour estimer la pression artérielle
-TRH : thyrotropin releasing hormone (hormone thyréotrope)[3]
-TRPS : syndrome trichorhinophalangien[43]
+TRH : thyrotropin releasing hormone (hormone thyréotrope)
+TRPS : syndrome trichorhinophalangien
 TS : tentative de suicide (voir tentative d'autolyse, TA), temps de saignement, transfusion sanguine ou travailleur social
 TSA : troncs supra-aortiques, trouble du spectre autistique, trouble spécifique des apprentissages ou trouble stress aigu
-TSH : thyroid stimulating hormone (thyréostimuline)[3]
+TSH : thyroid stimulating hormone (thyréostimuline)
 TSLO : trouble spécifique du langage oral
 TSO : traitement substitutif opiacé
 TSPT : trouble de stress post-traumatique
@@ -3890,7 +3946,7 @@
 Tx : traitement
 TV : tachycardie ventriculaire ou toucher vaginal
 TVBC : tronc veineux brachiocéphalique
-TVC : thrombose veineuse cérébrale, tachycardie ventriculaire catécholergique[44]
+TVC : thrombose veineuse cérébrale, tachycardie ventriculaire catécholergique
 TVI : tronc veineux innominé
 TVIM : tumeur vésicale infiltrant le muscle
 TVM : thrombose veineuse musculaire
@@ -3902,7 +3958,7 @@
 TVPP : thrombose veineuse profonde proximale
 TVR : trouble ventilatoire restrictif
 TVS : thrombose veineuse superficielle
-TVT : tension-free vaginal tape[45] (incontinence urinaire)
+TVT : tension-free vaginal tape (incontinence urinaire)
 Tyr : tyrosine
 TTT : traitement
 Sommaire :
@@ -3942,7 +3998,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3960,7 +4016,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">U : uracile ou sélénocystéine
 UA : urgence absolue
@@ -3984,9 +4042,9 @@
 UHCD : unité d'hospitalisation courte durée
 UHN : urétéro hydronéphrose
 UHR : unité d'hébergement renforcé
-UI : unité internationale[3]
+UI : unité internationale
 UIP : usual interstitial pneumonia (pneumonie interstitielle usuelle)
-UV ou UIV : urographie intraveineuse[3]
+UV ou UIV : urographie intraveineuse
 UMASP : unité mobile d'accompagnement et de soins palliatifs
 UMB : unité mère-bébé
 UME : unité mère-enfant
@@ -4053,7 +4111,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4071,7 +4129,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">V : valine
 V+ / v+ : vomissement
@@ -4093,13 +4153,13 @@
 VCS : veine cave supérieure
 VD : ventricule droit ou verre dépoli
 Vd : vélocité diastolique (sonographie Doppler) ou volume de dilution
-VDRL : veneral disease research laboratory (laboratoire de recherche sur la maladie vénérienne)[3]
+VDRL : veneral disease research laboratory (laboratoire de recherche sur la maladie vénérienne)
 VEGF : vascular endothelial growth factor
-VEMS : volume maximal expiré pendant la première seconde[3]
+VEMS : volume maximal expiré pendant la première seconde
 VES : volume d'éjection systolique
 VG : ventricule gauche
-VGM : volume globulaire moyen[3]
-VGPR : very good partial response[46]
+VGM : volume globulaire moyen
+VGPR : very good partial response
 VGTD : ventricule gauche télédiastolique
 VH : vessie hyperactive
 VHA : virus de l'hépatite A
@@ -4109,14 +4169,14 @@
 VHE : virus de l'hépatite E
 VHL : von Hippel-Lindau
 VI : ventilation invasive (intubation)
-VIH : virus de l'immunodéficience humaine[3]
+VIH : virus de l'immunodéficience humaine
 VIP : vasoactive intestinal peptide (peptide vasoactif intestinal)
 VITT : Vaccine-induced immune thrombotic thrombocytopenia (thrombose atypique liée à la vaccination)
 VJE : veine jugulaire externe
 VJI : veine jugulaire interne
 VL : vision de loin, voies lacrymales ou ventricules latéraux
 VLCT : valeur limite court terme
-VLDL : very low density lipoprotein (lipoprotéine de très basse densité)[3]
+VLDL : very low density lipoprotein (lipoprotéine de très basse densité)
 VLE : valeur limite d'exposition
 VLEP : valeur limite d'exposition professionnelle
 VLPO : noyau ventrolatéral préoptique
@@ -4129,7 +4189,7 @@
 VNR : valeur nutritionnelle de référence
 VO : varices œsophagiennes (stade I, II ou III)
 VO2max : consommation maximale d'oxygène, exprimée en l/min
-VOD : Veno-occlusive Disease[47]
+VOD : Veno-occlusive Disease
 VOP : vitesse d'onde de pouls
 VPA : visite pré-anesthésique
 VPH : virus du papillome humain
@@ -4140,7 +4200,7 @@
 VRE : volume de réserve expiratoire
 VRI : volume de réserve inspiratoire
 VRS : virus respiratoire syncytial
-VS : vitesse de sédimentation[3] ou vésicule séminale
+VS : vitesse de sédimentation ou vésicule séminale
 VSAI : ventilation spontanée avec aide inspiratoire
 VSH : veines sus-hépatiques (ancienne nomenclature anatomique)
 VSL : véhicule sanitaire léger
@@ -4195,7 +4255,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4213,7 +4273,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">W : tryptophane
 WASP : Wiskott-Aldrich syndrome protein
@@ -4257,7 +4319,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4275,7 +4337,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">XGJ : xanthogranulome juvénile
 XGN : xanthogranulome nécrotique
@@ -4319,7 +4383,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4337,7 +4401,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">Y : tyrosine
 YAG : yttrium aluminium garnet
@@ -4378,7 +4444,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_en_m%C3%A9decine</t>
+          <t>Liste_d'abréviations_en_médecine</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4396,7 +4462,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">ZDV : zidovudine
 ZEBRA : ZEB replicating activator
